--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>869.2908687070915</v>
+        <v>305.5522071246551</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.0999998664955</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6399999999999</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>33.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.38404826804759</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.883202878473362</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>41.52472093889505</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.21602380635411</v>
+        <v>42.39628893866063</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>150.4700000000005</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.7700000000004</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>161.25</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>150.2400000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9900000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.9100000000008</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6700000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.3650000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5850000000008</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>88.56999999999977</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.67999999999975</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>88.05</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.15999999999977</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>87.42999999999977</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.8799999999997</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999973</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>150.4700000000005</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>158.7700000000004</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>155.8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>161.25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>150.2400000000004</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.9900000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.9100000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6700000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3650000000008</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5850000000008</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4700000000004536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.769999980926514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5.799999952316284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2400000000004354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9900000000008</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.91000000000082</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.67000000000081</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.365000000000805</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.585000000000804</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1968,61 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
